--- a/output/analysis/consolidated.xlsx
+++ b/output/analysis/consolidated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data=td" sheetId="1" state="visible" r:id="rId2"/>
@@ -836,27 +836,7 @@
     <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -939,18 +919,18 @@
   <dimension ref="A1:AC65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="3" sqref="35:35 54:54 16:16 A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="8.67"/>
@@ -2165,7 +2145,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="3" sqref="35:35 54:54 16:16 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4672,7 +4652,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="3" sqref="35:35 54:54 16:16 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8463,7 +8443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:K3 G2:K2 G4:K5">
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8484,8 +8464,8 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y20" activeCellId="3" sqref="35:35 54:54 16:16 Y20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9628,8 +9608,8 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="2" sqref="35:35 54:54 16:16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9954,13 +9934,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.803772891349257</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.789625884732053</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.796636585872349</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>27</v>
@@ -9969,13 +9949,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.813431274292084</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.789743174924166</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.801412219931641</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>27</v>
@@ -10390,13 +10370,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.891877868248672</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.891030927835052</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.891454196879563</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -10405,13 +10385,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.893838796190073</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.892631898120073</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.89</v>
+        <v>0.893234939478934</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>27</v>
@@ -10817,13 +10797,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.9</v>
+        <v>0.907257980529313</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.9</v>
+        <v>0.903223458038423</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.9</v>
+        <v>0.905236223968041</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>27</v>
@@ -10832,13 +10812,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.912296643625949</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.911896865520728</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.912096710766985</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>27</v>
@@ -11253,13 +11233,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.909320190331448</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.901000606428138</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.905141281470666</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -11268,13 +11248,13 @@
         <v>26</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.91091177562384</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.896852637962401</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0.9</v>
+        <v>0.9038275372382</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>27</v>
@@ -11680,13 +11660,13 @@
         <v>26</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.917013458013107</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913870576339737</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.915439319652978</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>27</v>
@@ -11695,13 +11675,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.911792162661847</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913470171890799</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.912630395958437</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>27</v>
@@ -12113,13 +12093,13 @@
         <v>26</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.909872820439959</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.899848392965434</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.904832842993721</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -12128,13 +12108,13 @@
         <v>26</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.908795710211644</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.907871437234688</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.908333338600145</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>27</v>
@@ -12250,8 +12230,8 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="2" sqref="35:35 54:54 16:16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12576,13 +12556,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.791719774229965</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.788610717896866</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.790162187769175</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>27</v>
@@ -12591,13 +12571,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.803674092686255</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.789799797775531</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.796676543846088</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>27</v>
@@ -13012,13 +12992,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.860633952348687</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.863371740448757</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.862000672541723</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -13027,13 +13007,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.868960905306881</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.864554275318375</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.866751989442191</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>27</v>
@@ -13439,13 +13419,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908207953758686</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908548028311426</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908377959206153</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>27</v>
@@ -13454,13 +13434,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914568406522737</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913862487360971</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914215310671496</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>27</v>
@@ -13875,13 +13855,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.913384916314161</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.911340206185567</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.912361415641833</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -13890,13 +13870,13 @@
         <v>26</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.913550222235547</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.91251061249242</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.913030121429588</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>27</v>
@@ -14302,13 +14282,13 @@
         <v>26</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.915990349647608</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.910707785642063</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913341429414431</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>27</v>
@@ -14317,13 +14297,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914954235001013</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913563195146613</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914258185958846</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>27</v>
@@ -14738,13 +14718,13 @@
         <v>26</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.902783349131475</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.906252274105519</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.904514485691599</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -14753,13 +14733,13 @@
         <v>26</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.902313617965792</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.898053365676167</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.900178451251547</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>27</v>
@@ -14875,8 +14855,8 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="2" sqref="35:35 54:54 16:16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15201,13 +15181,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.791719774229965</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.788610717896866</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.790162187769175</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>27</v>
@@ -15216,13 +15196,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.795291896876294</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.789799797775531</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.79</v>
+        <v>0.792536332686275</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>27</v>
@@ -15637,13 +15617,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.860633952348687</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.863371740448757</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.86</v>
+        <v>0.862000672541723</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -15652,13 +15632,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.868377416673551</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.866088538508187</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.867231467338321</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>27</v>
@@ -16064,13 +16044,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908207953758686</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908548028311426</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908377959206153</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>27</v>
@@ -16079,13 +16059,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914568406522737</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913862487360971</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914215310671496</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>27</v>
@@ -16500,13 +16480,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.915144268921627</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.914881698685541</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.915012964966931</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -16515,13 +16495,13 @@
         <v>26</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.913550222235547</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.91251061249242</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>0.91</v>
+        <v>0.913030121429588</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>27</v>
@@ -16927,13 +16907,13 @@
         <v>26</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.915990349647608</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.910707785642063</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913341429414431</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>27</v>
@@ -16942,13 +16922,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.915156767387893</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913765419615773</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914460564269743</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>27</v>
@@ -17363,13 +17343,13 @@
         <v>26</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.902783349131475</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.906252274105519</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.904514485691599</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -17378,13 +17358,13 @@
         <v>26</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.902313617965792</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.898053365676167</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>0.9</v>
+        <v>0.900178451251547</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>27</v>
@@ -17501,7 +17481,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="3" sqref="35:35 54:54 16:16 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18471,7 +18451,7 @@
   <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="3" sqref="35:35 54:54 16:16 Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21619,7 +21599,7 @@
   <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="3" sqref="35:35 54:54 16:16 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24574,7 +24554,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="3" sqref="35:35 54:54 16:16 M32"/>
+      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
